--- a/pred_ohlcv/54_21/2020-01-20 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 FNB ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>2919357.953803442</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2948185.328603442</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2537215.728203442</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-19962.27639655775</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-19962.27639655775</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1180659.710703442</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1174560.503903442</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1129089.195503442</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1200813.987403442</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1200813.987403442</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1338002.424203442</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1338002.424203442</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1179366.681065873</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1179366.681065873</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1668212.753665873</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1667963.753965873</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1535764.060465873</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1158590.081065872</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>845968.6757658725</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>248543.8460658725</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>248763.4238658725</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>252838.3555658725</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>202838.3555658725</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>423070.9717658724</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>422830.9717658724</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>423532.9717658724</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>423782.9717658724</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>423782.9717658724</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>423782.9717658724</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-323381.0453341276</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-393746.9243341276</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-393746.9243341276</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-393446.9243341276</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-393446.9243341276</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>763895.9873658724</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>763895.9873658724</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>768135.9873658724</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-7531256.396934127</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-10043320.51809302</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-10005072.37969302</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-9559618.731230589</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-9212007.074024258</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-8046793.726824258</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-5191185.148224259</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-5641185.148224259</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-5487321.99372426</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-5487321.99372426</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-3921106.759924258</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4147735.546224258</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-3227042.676224258</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-3397563.923624258</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-3430365.545824258</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-3430365.545824258</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-3421252.749024258</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-3426090.455524258</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4566237.466924258</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-4557433.120624257</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4549100.075724257</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4549100.075724257</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4541276.030924257</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4542091.629124257</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4535029.589524257</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4542077.447424257</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-4532414.800824258</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4534462.658724258</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-4993713.320724258</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-5008793.343624258</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-5312800.150624258</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-4839234.823024258</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-5821369.511524258</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-6521469.140224258</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-7356437.716290521</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-7356116.716290521</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-8523595.688290522</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-8522818.688290522</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-7005107.030790522</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-7576064.910390521</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-7575842.910390521</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-7575842.910390521</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-8015286.924290522</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-8059373.228990521</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-8567952.922690522</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-9076707.505490523</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-9076707.505490523</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-9076257.505490523</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-9076257.505490523</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-21148719.91098743</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-24075673.20408743</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-24075673.20408743</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-24317848.90508743</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-23715782.6435556</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-23716012.6435556</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-23716472.6435556</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-23659014.99050505</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-22637832.80264463</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-21714103.73214462</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-21714103.73214462</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-22990226.87624462</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-23052383.96324462</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 FNB ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>2919357.953803442</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2948185.328603442</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2537215.728203442</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-19962.27639655775</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-19962.27639655775</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1180659.710703442</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1174560.503903442</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1129089.195503442</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1200813.987403442</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1200813.987403442</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1338002.424203442</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1338002.424203442</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1179366.681065873</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1179366.681065873</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1668212.753665873</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1667963.753965873</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1535764.060465873</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1158590.081065872</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>845968.6757658725</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>248543.8460658725</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>248763.4238658725</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>252838.3555658725</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>202838.3555658725</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>423070.9717658724</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>422830.9717658724</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>423532.9717658724</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>423782.9717658724</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>423782.9717658724</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>423782.9717658724</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-323381.0453341276</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-393746.9243341276</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-393746.9243341276</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-393446.9243341276</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-393446.9243341276</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>763895.9873658724</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>763895.9873658724</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>768135.9873658724</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-7531256.396934127</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-10043320.51809302</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-10005072.37969302</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-9559618.731230589</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-9212007.074024258</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-8046793.726824258</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-5191185.148224259</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-5641185.148224259</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-5487321.99372426</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-5487321.99372426</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-3921106.759924258</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4147735.546224258</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-3227042.676224258</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-3397563.923624258</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-3430365.545824258</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-3430365.545824258</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-3421252.749024258</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-3426090.455524258</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4566237.466924258</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-4557433.120624257</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4542091.629124257</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4535029.589524257</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-4532414.800824258</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4534462.658724258</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-4993713.320724258</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-7356437.716290521</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-7356116.716290521</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-8523595.688290522</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-8522818.688290522</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-7005107.030790522</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-7576064.910390521</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-7575842.910390521</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-7575842.910390521</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-8015286.924290522</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-8059373.228990521</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-8567952.922690522</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-9076707.505490523</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-9076707.505490523</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-9076257.505490523</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-9076257.505490523</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-21148719.91098743</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-24075673.20408743</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-24075673.20408743</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-24317848.90508743</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-24317848.90508743</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-23715782.6435556</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-23716012.6435556</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-23716242.6435556</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-23716472.6435556</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-23494477.0911951</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-22724311.29040505</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-22543314.40620505</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-22543314.40620505</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-22543544.40620505</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-23659014.99050505</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-22447108.92464463</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-22447338.92464463</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-22493138.50344463</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-22637832.80264463</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-21714103.73214462</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-21714103.73214462</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-22990226.87624462</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-23052383.96324462</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
